--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2299.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2299.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.863366435231926</v>
+        <v>1.145737409591675</v>
       </c>
       <c r="B1">
-        <v>3.030352921141497</v>
+        <v>2.207284212112427</v>
       </c>
       <c r="C1">
-        <v>2.692453569877704</v>
+        <v>2.986399412155151</v>
       </c>
       <c r="D1">
-        <v>2.962955105026208</v>
+        <v>1.480307579040527</v>
       </c>
       <c r="E1">
-        <v>2.972979670061911</v>
+        <v>1.037962317466736</v>
       </c>
     </row>
   </sheetData>
